--- a/data/input/Liquidaciones/HFF_SEA_8F- Liquidation- INST 121- Seaspan Raptor-MEDU9739360.xlsx
+++ b/data/input/Liquidaciones/HFF_SEA_8F- Liquidation- INST 121- Seaspan Raptor-MEDU9739360.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaperalta/Library/Mobile Documents/com~apple~CloudDocs/TEMP. 2023-2024/1.Asistencia comercial/3.Liquidaciones/2.Happy Farm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255AC972-C851-154D-8BFD-DCAAA237B2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A09C930-0D13-9D47-BE80-0408F547331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" xr2:uid="{CE0D31B8-CFBC-4E94-973E-6FB5719EF5DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="81">
   <si>
     <r>
       <rPr>
@@ -333,6 +333,66 @@
   </si>
   <si>
     <t>观察</t>
+  </si>
+  <si>
+    <t>1512134</t>
+  </si>
+  <si>
+    <t>1512144</t>
+  </si>
+  <si>
+    <t>1512057</t>
+  </si>
+  <si>
+    <t>1512058</t>
+  </si>
+  <si>
+    <t>1512060</t>
+  </si>
+  <si>
+    <t>1512061</t>
+  </si>
+  <si>
+    <t>1512062</t>
+  </si>
+  <si>
+    <t>1512226</t>
+  </si>
+  <si>
+    <t>1512227</t>
+  </si>
+  <si>
+    <t>1512229</t>
+  </si>
+  <si>
+    <t>1512457</t>
+  </si>
+  <si>
+    <t>1512459</t>
+  </si>
+  <si>
+    <t>1512460</t>
+  </si>
+  <si>
+    <t>1513742</t>
+  </si>
+  <si>
+    <t>1513745</t>
+  </si>
+  <si>
+    <t>1512063</t>
+  </si>
+  <si>
+    <t>1511204</t>
+  </si>
+  <si>
+    <t>1512076</t>
+  </si>
+  <si>
+    <t>1512077</t>
+  </si>
+  <si>
+    <t>1512059</t>
   </si>
 </sst>
 </file>
@@ -931,6 +991,12 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -980,12 +1046,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1378,7 +1438,7 @@
   <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D44"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1398,45 +1458,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:21" ht="17">
       <c r="A4" s="3" t="s">
@@ -1451,10 +1511,10 @@
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="17">
@@ -1472,41 +1532,41 @@
       <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="71">
+      <c r="I5" s="73">
         <v>45307</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:21" ht="17">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:21" ht="17">
       <c r="A7" s="8"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="77"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:21" ht="18" thickBot="1">
       <c r="A8" s="13"/>
@@ -1525,8 +1585,8 @@
         <v>8</v>
       </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
     </row>
     <row r="9" spans="1:21" ht="18" thickTop="1">
       <c r="A9" s="16" t="s">
@@ -1562,7 +1622,7 @@
       <c r="K9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="63" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1608,10 +1668,10 @@
       <c r="B11" s="23">
         <v>45309</v>
       </c>
-      <c r="C11" s="62">
-        <v>2134</v>
-      </c>
-      <c r="D11" s="81">
+      <c r="C11" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="64">
         <v>2.5</v>
       </c>
       <c r="E11" s="24" t="s">
@@ -1645,8 +1705,8 @@
       <c r="Q11" s="33"/>
       <c r="R11" s="33"/>
       <c r="S11" s="34"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
     </row>
     <row r="12" spans="1:21" ht="16">
       <c r="A12" s="22" t="s">
@@ -1655,10 +1715,10 @@
       <c r="B12" s="23">
         <v>45309</v>
       </c>
-      <c r="C12" s="62">
-        <v>2144</v>
-      </c>
-      <c r="D12" s="81">
+      <c r="C12" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="64">
         <v>2.5</v>
       </c>
       <c r="E12" s="24" t="s">
@@ -1692,8 +1752,8 @@
       <c r="Q12" s="33"/>
       <c r="R12" s="33"/>
       <c r="S12" s="34"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
     </row>
     <row r="13" spans="1:21" ht="16">
       <c r="A13" s="22" t="s">
@@ -1702,10 +1762,10 @@
       <c r="B13" s="23">
         <v>45309</v>
       </c>
-      <c r="C13" s="62">
-        <v>2057</v>
-      </c>
-      <c r="D13" s="81">
+      <c r="C13" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="64">
         <v>2.5</v>
       </c>
       <c r="E13" s="24" t="s">
@@ -1739,8 +1799,8 @@
       <c r="Q13" s="33"/>
       <c r="R13" s="33"/>
       <c r="S13" s="34"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
     </row>
     <row r="14" spans="1:21" ht="16">
       <c r="A14" s="22" t="s">
@@ -1749,10 +1809,10 @@
       <c r="B14" s="23">
         <v>45309</v>
       </c>
-      <c r="C14" s="62">
-        <v>2058</v>
-      </c>
-      <c r="D14" s="81">
+      <c r="C14" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="64">
         <v>2.5</v>
       </c>
       <c r="E14" s="24" t="s">
@@ -1786,8 +1846,8 @@
       <c r="Q14" s="33"/>
       <c r="R14" s="33"/>
       <c r="S14" s="34"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
     </row>
     <row r="15" spans="1:21" ht="16">
       <c r="A15" s="22" t="s">
@@ -1796,10 +1856,10 @@
       <c r="B15" s="23">
         <v>45309</v>
       </c>
-      <c r="C15" s="62">
-        <v>2058</v>
-      </c>
-      <c r="D15" s="81">
+      <c r="C15" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="64">
         <v>2.5</v>
       </c>
       <c r="E15" s="24" t="s">
@@ -1833,8 +1893,8 @@
       <c r="Q15" s="33"/>
       <c r="R15" s="33"/>
       <c r="S15" s="34"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
     </row>
     <row r="16" spans="1:21" ht="16">
       <c r="A16" s="22" t="s">
@@ -1843,10 +1903,10 @@
       <c r="B16" s="23">
         <v>45309</v>
       </c>
-      <c r="C16" s="62">
-        <v>2060</v>
-      </c>
-      <c r="D16" s="81">
+      <c r="C16" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="64">
         <v>2.5</v>
       </c>
       <c r="E16" s="24" t="s">
@@ -1880,8 +1940,8 @@
       <c r="Q16" s="33"/>
       <c r="R16" s="33"/>
       <c r="S16" s="34"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
     </row>
     <row r="17" spans="1:21" ht="16">
       <c r="A17" s="22" t="s">
@@ -1890,10 +1950,10 @@
       <c r="B17" s="23">
         <v>45309</v>
       </c>
-      <c r="C17" s="62">
-        <v>2061</v>
-      </c>
-      <c r="D17" s="81">
+      <c r="C17" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="64">
         <v>2.5</v>
       </c>
       <c r="E17" s="24" t="s">
@@ -1927,8 +1987,8 @@
       <c r="Q17" s="33"/>
       <c r="R17" s="33"/>
       <c r="S17" s="34"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
     </row>
     <row r="18" spans="1:21" ht="16">
       <c r="A18" s="22" t="s">
@@ -1937,10 +1997,10 @@
       <c r="B18" s="23">
         <v>45309</v>
       </c>
-      <c r="C18" s="62">
-        <v>2061</v>
-      </c>
-      <c r="D18" s="81">
+      <c r="C18" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="64">
         <v>2.5</v>
       </c>
       <c r="E18" s="24" t="s">
@@ -1974,8 +2034,8 @@
       <c r="Q18" s="33"/>
       <c r="R18" s="33"/>
       <c r="S18" s="34"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
     </row>
     <row r="19" spans="1:21" ht="16">
       <c r="A19" s="22" t="s">
@@ -1984,10 +2044,10 @@
       <c r="B19" s="23">
         <v>45309</v>
       </c>
-      <c r="C19" s="62">
-        <v>2062</v>
-      </c>
-      <c r="D19" s="81">
+      <c r="C19" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="64">
         <v>2.5</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -2021,8 +2081,8 @@
       <c r="Q19" s="33"/>
       <c r="R19" s="33"/>
       <c r="S19" s="34"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
     </row>
     <row r="20" spans="1:21" ht="16">
       <c r="A20" s="22" t="s">
@@ -2031,10 +2091,10 @@
       <c r="B20" s="23">
         <v>45309</v>
       </c>
-      <c r="C20" s="62">
-        <v>2062</v>
-      </c>
-      <c r="D20" s="81">
+      <c r="C20" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="64">
         <v>2.5</v>
       </c>
       <c r="E20" s="24" t="s">
@@ -2068,8 +2128,8 @@
       <c r="Q20" s="33"/>
       <c r="R20" s="33"/>
       <c r="S20" s="34"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
     </row>
     <row r="21" spans="1:21" ht="16">
       <c r="A21" s="22" t="s">
@@ -2078,10 +2138,10 @@
       <c r="B21" s="23">
         <v>45309</v>
       </c>
-      <c r="C21" s="62">
-        <v>2226</v>
-      </c>
-      <c r="D21" s="81">
+      <c r="C21" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="64">
         <v>2.5</v>
       </c>
       <c r="E21" s="24" t="s">
@@ -2115,8 +2175,8 @@
       <c r="Q21" s="33"/>
       <c r="R21" s="33"/>
       <c r="S21" s="34"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
     </row>
     <row r="22" spans="1:21" ht="16">
       <c r="A22" s="22" t="s">
@@ -2125,10 +2185,10 @@
       <c r="B22" s="23">
         <v>45309</v>
       </c>
-      <c r="C22" s="62">
-        <v>2227</v>
-      </c>
-      <c r="D22" s="81">
+      <c r="C22" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="64">
         <v>2.5</v>
       </c>
       <c r="E22" s="24" t="s">
@@ -2162,8 +2222,8 @@
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
       <c r="S22" s="34"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
     </row>
     <row r="23" spans="1:21" ht="16">
       <c r="A23" s="22" t="s">
@@ -2172,10 +2232,10 @@
       <c r="B23" s="23">
         <v>45309</v>
       </c>
-      <c r="C23" s="62">
-        <v>2229</v>
-      </c>
-      <c r="D23" s="81">
+      <c r="C23" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="64">
         <v>2.5</v>
       </c>
       <c r="E23" s="24" t="s">
@@ -2209,8 +2269,8 @@
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
       <c r="S23" s="34"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
     </row>
     <row r="24" spans="1:21" ht="16">
       <c r="A24" s="22" t="s">
@@ -2219,10 +2279,10 @@
       <c r="B24" s="23">
         <v>45309</v>
       </c>
-      <c r="C24" s="62">
-        <v>2229</v>
-      </c>
-      <c r="D24" s="81">
+      <c r="C24" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="64">
         <v>2.5</v>
       </c>
       <c r="E24" s="24" t="s">
@@ -2256,8 +2316,8 @@
       <c r="Q24" s="33"/>
       <c r="R24" s="33"/>
       <c r="S24" s="34"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
     </row>
     <row r="25" spans="1:21" ht="16">
       <c r="A25" s="22" t="s">
@@ -2266,10 +2326,10 @@
       <c r="B25" s="23">
         <v>45309</v>
       </c>
-      <c r="C25" s="62">
-        <v>2457</v>
-      </c>
-      <c r="D25" s="81">
+      <c r="C25" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="64">
         <v>2.5</v>
       </c>
       <c r="E25" s="24" t="s">
@@ -2303,8 +2363,8 @@
       <c r="Q25" s="33"/>
       <c r="R25" s="33"/>
       <c r="S25" s="34"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
     </row>
     <row r="26" spans="1:21" ht="16">
       <c r="A26" s="22" t="s">
@@ -2313,10 +2373,10 @@
       <c r="B26" s="23">
         <v>45309</v>
       </c>
-      <c r="C26" s="62">
-        <v>2459</v>
-      </c>
-      <c r="D26" s="81">
+      <c r="C26" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="64">
         <v>2.5</v>
       </c>
       <c r="E26" s="24" t="s">
@@ -2350,8 +2410,8 @@
       <c r="Q26" s="33"/>
       <c r="R26" s="33"/>
       <c r="S26" s="34"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
     </row>
     <row r="27" spans="1:21" ht="16">
       <c r="A27" s="22" t="s">
@@ -2360,10 +2420,10 @@
       <c r="B27" s="23">
         <v>45309</v>
       </c>
-      <c r="C27" s="62">
-        <v>2460</v>
-      </c>
-      <c r="D27" s="81">
+      <c r="C27" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="64">
         <v>2.5</v>
       </c>
       <c r="E27" s="24" t="s">
@@ -2397,8 +2457,8 @@
       <c r="Q27" s="33"/>
       <c r="R27" s="33"/>
       <c r="S27" s="34"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
     </row>
     <row r="28" spans="1:21" ht="16">
       <c r="A28" s="22" t="s">
@@ -2407,10 +2467,10 @@
       <c r="B28" s="23">
         <v>45309</v>
       </c>
-      <c r="C28" s="62">
-        <v>2460</v>
-      </c>
-      <c r="D28" s="81">
+      <c r="C28" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="64">
         <v>2.5</v>
       </c>
       <c r="E28" s="24" t="s">
@@ -2444,8 +2504,8 @@
       <c r="Q28" s="33"/>
       <c r="R28" s="33"/>
       <c r="S28" s="34"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
     </row>
     <row r="29" spans="1:21" ht="16">
       <c r="A29" s="22" t="s">
@@ -2454,10 +2514,10 @@
       <c r="B29" s="23">
         <v>45309</v>
       </c>
-      <c r="C29" s="62">
-        <v>2460</v>
-      </c>
-      <c r="D29" s="81">
+      <c r="C29" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="64">
         <v>2.5</v>
       </c>
       <c r="E29" s="24" t="s">
@@ -2501,10 +2561,10 @@
       <c r="B30" s="23">
         <v>45309</v>
       </c>
-      <c r="C30" s="62">
-        <v>3742</v>
-      </c>
-      <c r="D30" s="81">
+      <c r="C30" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="64">
         <v>2.5</v>
       </c>
       <c r="E30" s="24" t="s">
@@ -2548,10 +2608,10 @@
       <c r="B31" s="23">
         <v>45309</v>
       </c>
-      <c r="C31" s="62">
-        <v>3745</v>
-      </c>
-      <c r="D31" s="81">
+      <c r="C31" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="64">
         <v>2.5</v>
       </c>
       <c r="E31" s="24" t="s">
@@ -2595,10 +2655,10 @@
       <c r="B32" s="23">
         <v>45309</v>
       </c>
-      <c r="C32" s="62">
-        <v>2063</v>
-      </c>
-      <c r="D32" s="81">
+      <c r="C32" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="64">
         <v>2.5</v>
       </c>
       <c r="E32" s="24" t="s">
@@ -2642,10 +2702,10 @@
       <c r="B33" s="23">
         <v>45310</v>
       </c>
-      <c r="C33" s="62">
-        <v>1204</v>
-      </c>
-      <c r="D33" s="81">
+      <c r="C33" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="64">
         <v>2.5</v>
       </c>
       <c r="E33" s="24" t="s">
@@ -2689,10 +2749,10 @@
       <c r="B34" s="23">
         <v>45310</v>
       </c>
-      <c r="C34" s="62">
-        <v>2076</v>
-      </c>
-      <c r="D34" s="81">
+      <c r="C34" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="64">
         <v>2.5</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -2736,10 +2796,10 @@
       <c r="B35" s="23">
         <v>45310</v>
       </c>
-      <c r="C35" s="62">
-        <v>2076</v>
-      </c>
-      <c r="D35" s="81">
+      <c r="C35" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="64">
         <v>2.5</v>
       </c>
       <c r="E35" s="24" t="s">
@@ -2783,10 +2843,10 @@
       <c r="B36" s="23">
         <v>45310</v>
       </c>
-      <c r="C36" s="62">
-        <v>2076</v>
-      </c>
-      <c r="D36" s="81">
+      <c r="C36" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="64">
         <v>2.5</v>
       </c>
       <c r="E36" s="24" t="s">
@@ -2830,10 +2890,10 @@
       <c r="B37" s="23">
         <v>45310</v>
       </c>
-      <c r="C37" s="62">
-        <v>2076</v>
-      </c>
-      <c r="D37" s="81">
+      <c r="C37" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="64">
         <v>2.5</v>
       </c>
       <c r="E37" s="24" t="s">
@@ -2877,10 +2937,10 @@
       <c r="B38" s="23">
         <v>45310</v>
       </c>
-      <c r="C38" s="62">
-        <v>2076</v>
-      </c>
-      <c r="D38" s="81">
+      <c r="C38" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="64">
         <v>2.5</v>
       </c>
       <c r="E38" s="24" t="s">
@@ -2926,10 +2986,10 @@
       <c r="B39" s="23">
         <v>45310</v>
       </c>
-      <c r="C39" s="62">
-        <v>2076</v>
-      </c>
-      <c r="D39" s="81">
+      <c r="C39" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="64">
         <v>2.5</v>
       </c>
       <c r="E39" s="24" t="s">
@@ -2975,10 +3035,10 @@
       <c r="B40" s="23">
         <v>45310</v>
       </c>
-      <c r="C40" s="62">
-        <v>2077</v>
-      </c>
-      <c r="D40" s="81">
+      <c r="C40" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="64">
         <v>2.5</v>
       </c>
       <c r="E40" s="24" t="s">
@@ -3024,10 +3084,10 @@
       <c r="B41" s="23">
         <v>45310</v>
       </c>
-      <c r="C41" s="62">
-        <v>2077</v>
-      </c>
-      <c r="D41" s="81">
+      <c r="C41" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="64">
         <v>2.5</v>
       </c>
       <c r="E41" s="24" t="s">
@@ -3073,10 +3133,10 @@
       <c r="B42" s="23">
         <v>45310</v>
       </c>
-      <c r="C42" s="62">
-        <v>2077</v>
-      </c>
-      <c r="D42" s="81">
+      <c r="C42" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="64">
         <v>2.5</v>
       </c>
       <c r="E42" s="24" t="s">
@@ -3120,10 +3180,10 @@
       <c r="B43" s="23">
         <v>45310</v>
       </c>
-      <c r="C43" s="62">
-        <v>2059</v>
-      </c>
-      <c r="D43" s="81">
+      <c r="C43" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="64">
         <v>2.5</v>
       </c>
       <c r="E43" s="24" t="s">
@@ -3167,10 +3227,10 @@
       <c r="B44" s="23">
         <v>45310</v>
       </c>
-      <c r="C44" s="62">
-        <v>2059</v>
-      </c>
-      <c r="D44" s="81">
+      <c r="C44" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="64">
         <v>2.5</v>
       </c>
       <c r="E44" s="24" t="s">
@@ -3303,8 +3363,8 @@
       <c r="Q47" s="33"/>
       <c r="R47" s="33"/>
       <c r="S47" s="34"/>
-      <c r="T47" s="63"/>
-      <c r="U47" s="63"/>
+      <c r="T47" s="65"/>
+      <c r="U47" s="65"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="44"/>
@@ -3337,8 +3397,8 @@
       <c r="Q48" s="33"/>
       <c r="R48" s="33"/>
       <c r="S48" s="34"/>
-      <c r="T48" s="63"/>
-      <c r="U48" s="63"/>
+      <c r="T48" s="65"/>
+      <c r="U48" s="65"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="44"/>
@@ -3395,8 +3455,8 @@
       <c r="Q50" s="33"/>
       <c r="R50" s="33"/>
       <c r="S50" s="34"/>
-      <c r="T50" s="63"/>
-      <c r="U50" s="63"/>
+      <c r="T50" s="65"/>
+      <c r="U50" s="65"/>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="44"/>
@@ -3422,8 +3482,8 @@
       <c r="Q51" s="33"/>
       <c r="R51" s="33"/>
       <c r="S51" s="34"/>
-      <c r="T51" s="63"/>
-      <c r="U51" s="63"/>
+      <c r="T51" s="65"/>
+      <c r="U51" s="65"/>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="44"/>
@@ -3449,8 +3509,8 @@
       <c r="Q52" s="33"/>
       <c r="R52" s="33"/>
       <c r="S52" s="34"/>
-      <c r="T52" s="63"/>
-      <c r="U52" s="63"/>
+      <c r="T52" s="65"/>
+      <c r="U52" s="65"/>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="44"/>
@@ -3476,8 +3536,8 @@
       <c r="Q53" s="33"/>
       <c r="R53" s="33"/>
       <c r="S53" s="34"/>
-      <c r="T53" s="63"/>
-      <c r="U53" s="63"/>
+      <c r="T53" s="65"/>
+      <c r="U53" s="65"/>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="44"/>
@@ -3503,8 +3563,8 @@
       <c r="Q54" s="33"/>
       <c r="R54" s="33"/>
       <c r="S54" s="34"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="63"/>
+      <c r="T54" s="65"/>
+      <c r="U54" s="65"/>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="44"/>
@@ -3531,8 +3591,8 @@
       <c r="Q55" s="33"/>
       <c r="R55" s="33"/>
       <c r="S55" s="34"/>
-      <c r="T55" s="63"/>
-      <c r="U55" s="63"/>
+      <c r="T55" s="65"/>
+      <c r="U55" s="65"/>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="44"/>
@@ -3561,8 +3621,8 @@
       <c r="Q56" s="33"/>
       <c r="R56" s="33"/>
       <c r="S56" s="34"/>
-      <c r="T56" s="63"/>
-      <c r="U56" s="63"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="65"/>
     </row>
     <row r="57" spans="1:21">
       <c r="L57" s="29"/>
@@ -3573,21 +3633,23 @@
       <c r="Q57" s="33"/>
       <c r="R57" s="33"/>
       <c r="S57" s="34"/>
-      <c r="T57" s="63"/>
-      <c r="U57" s="63"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:H7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
     <mergeCell ref="T28:U28"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="T18:U18"/>
@@ -3600,20 +3662,21 @@
     <mergeCell ref="T25:U25"/>
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="A1:K3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:H7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T53:U53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C11:C44" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>